--- a/resultados/Venda de Drone/Com SPAD 3 Drones/vel40/field_64ha_100ha_10%_6m_0_TSP/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 3 Drones/vel40/field_64ha_100ha_10%_6m_0_TSP/Planilha_Unificada.xlsx
@@ -2277,28 +2277,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>744.7280302761899</v>
+        <v>817.544078853684</v>
       </c>
       <c r="AB2" t="n">
-        <v>1018.969746105784</v>
+        <v>1118.599876186854</v>
       </c>
       <c r="AC2" t="n">
-        <v>921.7207036704681</v>
+        <v>1011.842273968366</v>
       </c>
       <c r="AD2" t="n">
-        <v>744728.0302761899</v>
+        <v>817544.078853684</v>
       </c>
       <c r="AE2" t="n">
-        <v>1018969.746105784</v>
+        <v>1118599.876186854</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.588996525897149e-06</v>
+        <v>2.68627746700028e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.75173611111111</v>
       </c>
       <c r="AH2" t="n">
-        <v>921720.7036704681</v>
+        <v>1011842.273968366</v>
       </c>
     </row>
     <row r="3">
@@ -2383,28 +2383,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>366.4619329868316</v>
+        <v>408.0346184591344</v>
       </c>
       <c r="AB3" t="n">
-        <v>501.4093838720466</v>
+        <v>558.290966192693</v>
       </c>
       <c r="AC3" t="n">
-        <v>453.5555760077878</v>
+        <v>505.0084599455539</v>
       </c>
       <c r="AD3" t="n">
-        <v>366461.9329868316</v>
+        <v>408034.6184591344</v>
       </c>
       <c r="AE3" t="n">
-        <v>501409.3838720467</v>
+        <v>558290.966192693</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.496514372522703e-06</v>
+        <v>4.220481414308743e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.116319444444445</v>
       </c>
       <c r="AH3" t="n">
-        <v>453555.5760077878</v>
+        <v>505008.4599455539</v>
       </c>
     </row>
     <row r="4">
@@ -2489,28 +2489,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>292.3821371258696</v>
+        <v>323.6256792481631</v>
       </c>
       <c r="AB4" t="n">
-        <v>400.0501390051409</v>
+        <v>442.7989317046609</v>
       </c>
       <c r="AC4" t="n">
-        <v>361.8699152123859</v>
+        <v>400.5388231349712</v>
       </c>
       <c r="AD4" t="n">
-        <v>292382.1371258696</v>
+        <v>323625.6792481631</v>
       </c>
       <c r="AE4" t="n">
-        <v>400050.1390051409</v>
+        <v>442798.9317046609</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.854293013291131e-06</v>
+        <v>4.825323958144754e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>8</v>
+        <v>7.098524305555555</v>
       </c>
       <c r="AH4" t="n">
-        <v>361869.9152123859</v>
+        <v>400538.8231349712</v>
       </c>
     </row>
     <row r="5">
@@ -2595,28 +2595,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>251.2305153996957</v>
+        <v>292.8031113634505</v>
       </c>
       <c r="AB5" t="n">
-        <v>343.7446746778071</v>
+        <v>400.6261345290716</v>
       </c>
       <c r="AC5" t="n">
-        <v>310.9381653753406</v>
+        <v>362.3909385319275</v>
       </c>
       <c r="AD5" t="n">
-        <v>251230.5153996957</v>
+        <v>292803.1113634505</v>
       </c>
       <c r="AE5" t="n">
-        <v>343744.6746778071</v>
+        <v>400626.1345290716</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.038784295691552e-06</v>
+        <v>5.137215624799231e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>7</v>
+        <v>6.666666666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>310938.1653753407</v>
+        <v>362390.9385319275</v>
       </c>
     </row>
     <row r="6">
@@ -2701,28 +2701,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>244.7114016084017</v>
+        <v>276.0401950767189</v>
       </c>
       <c r="AB6" t="n">
-        <v>334.8249355855607</v>
+        <v>377.6903729378921</v>
       </c>
       <c r="AC6" t="n">
-        <v>302.869713663123</v>
+        <v>341.6441338364666</v>
       </c>
       <c r="AD6" t="n">
-        <v>244711.4016084017</v>
+        <v>276040.1950767189</v>
       </c>
       <c r="AE6" t="n">
-        <v>334824.9355855607</v>
+        <v>377690.3729378921</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.082759697518778e-06</v>
+        <v>5.211558223480536e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>7</v>
+        <v>6.573350694444445</v>
       </c>
       <c r="AH6" t="n">
-        <v>302869.713663123</v>
+        <v>341644.1338364666</v>
       </c>
     </row>
   </sheetData>
@@ -2998,28 +2998,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>518.9324330521247</v>
+        <v>579.3904992607138</v>
       </c>
       <c r="AB2" t="n">
-        <v>710.0262485851089</v>
+        <v>792.7476419933387</v>
       </c>
       <c r="AC2" t="n">
-        <v>642.2623399482442</v>
+        <v>717.0889196697974</v>
       </c>
       <c r="AD2" t="n">
-        <v>518932.4330521246</v>
+        <v>579390.4992607138</v>
       </c>
       <c r="AE2" t="n">
-        <v>710026.2485851089</v>
+        <v>792747.6419933387</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.96078945240204e-06</v>
+        <v>3.395677541237554e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.69010416666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>642262.3399482442</v>
+        <v>717088.9196697974</v>
       </c>
     </row>
     <row r="3">
@@ -3104,28 +3104,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>288.6865612900085</v>
+        <v>328.8782404648568</v>
       </c>
       <c r="AB3" t="n">
-        <v>394.9936891092163</v>
+        <v>449.9857176879876</v>
       </c>
       <c r="AC3" t="n">
-        <v>357.2960457977565</v>
+        <v>407.0397123507666</v>
       </c>
       <c r="AD3" t="n">
-        <v>288686.5612900085</v>
+        <v>328878.2404648568</v>
       </c>
       <c r="AE3" t="n">
-        <v>394993.6891092163</v>
+        <v>449985.7176879876</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.811904011023132e-06</v>
+        <v>4.869630080195504e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.454427083333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>357296.0457977565</v>
+        <v>407039.7123507666</v>
       </c>
     </row>
     <row r="4">
@@ -3210,28 +3210,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>232.3078576058667</v>
+        <v>272.5847881267385</v>
       </c>
       <c r="AB4" t="n">
-        <v>317.8538594755593</v>
+        <v>372.9625327071331</v>
       </c>
       <c r="AC4" t="n">
-        <v>287.5183332379998</v>
+        <v>337.3675120417658</v>
       </c>
       <c r="AD4" t="n">
-        <v>232307.8576058667</v>
+        <v>272584.7881267385</v>
       </c>
       <c r="AE4" t="n">
-        <v>317853.8594755593</v>
+        <v>372962.5327071331</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.126001213092558e-06</v>
+        <v>5.413580790214936e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.705729166666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>287518.3332379998</v>
+        <v>337367.5120417658</v>
       </c>
     </row>
     <row r="5">
@@ -3316,28 +3316,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>229.117004928669</v>
+        <v>269.3939354495408</v>
       </c>
       <c r="AB5" t="n">
-        <v>313.4879940721346</v>
+        <v>368.5966673037062</v>
       </c>
       <c r="AC5" t="n">
-        <v>283.569139901146</v>
+        <v>333.4183187049114</v>
       </c>
       <c r="AD5" t="n">
-        <v>229117.004928669</v>
+        <v>269393.9354495408</v>
       </c>
       <c r="AE5" t="n">
-        <v>313487.9940721346</v>
+        <v>368596.6673037062</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.152272565787172e-06</v>
+        <v>5.459077282565886e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>7</v>
+        <v>6.649305555555555</v>
       </c>
       <c r="AH5" t="n">
-        <v>283569.139901146</v>
+        <v>333418.3187049114</v>
       </c>
     </row>
   </sheetData>
@@ -3613,28 +3613,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>209.1180294730283</v>
+        <v>245.4088997232971</v>
       </c>
       <c r="AB2" t="n">
-        <v>286.1245135612127</v>
+        <v>335.7792832778052</v>
       </c>
       <c r="AC2" t="n">
-        <v>258.8171915652916</v>
+        <v>303.7329797510554</v>
       </c>
       <c r="AD2" t="n">
-        <v>209118.0294730283</v>
+        <v>245408.8997232971</v>
       </c>
       <c r="AE2" t="n">
-        <v>286124.5135612127</v>
+        <v>335779.2832778052</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.167313574413038e-06</v>
+        <v>5.99323885610926e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.384982638888889</v>
       </c>
       <c r="AH2" t="n">
-        <v>258817.1915652916</v>
+        <v>303732.9797510554</v>
       </c>
     </row>
     <row r="3">
@@ -3719,28 +3719,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>205.878587007374</v>
+        <v>242.1694572576428</v>
       </c>
       <c r="AB3" t="n">
-        <v>281.6921654655914</v>
+        <v>331.346935182184</v>
       </c>
       <c r="AC3" t="n">
-        <v>254.8078605510755</v>
+        <v>299.7236487368392</v>
       </c>
       <c r="AD3" t="n">
-        <v>205878.587007374</v>
+        <v>242169.4572576428</v>
       </c>
       <c r="AE3" t="n">
-        <v>281692.1654655914</v>
+        <v>331346.935182184</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.209561666190972e-06</v>
+        <v>6.073181337108131e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.287326388888889</v>
       </c>
       <c r="AH3" t="n">
-        <v>254807.8605510755</v>
+        <v>299723.6487368392</v>
       </c>
     </row>
   </sheetData>
@@ -4016,28 +4016,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>294.5536349304552</v>
+        <v>332.4549067003244</v>
       </c>
       <c r="AB2" t="n">
-        <v>403.0212781010967</v>
+        <v>454.8794702227323</v>
       </c>
       <c r="AC2" t="n">
-        <v>364.5574929630436</v>
+        <v>411.4664120120202</v>
       </c>
       <c r="AD2" t="n">
-        <v>294553.6349304552</v>
+        <v>332454.9067003244</v>
       </c>
       <c r="AE2" t="n">
-        <v>403021.2781010967</v>
+        <v>454879.4702227323</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.689201162185557e-06</v>
+        <v>4.899140490831113e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.3203125</v>
       </c>
       <c r="AH2" t="n">
-        <v>364557.4929630436</v>
+        <v>411466.4120120202</v>
       </c>
     </row>
     <row r="3">
@@ -4122,28 +4122,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>205.7648712634137</v>
+        <v>243.6660535247314</v>
       </c>
       <c r="AB3" t="n">
-        <v>281.5365745679205</v>
+        <v>333.3946442199811</v>
       </c>
       <c r="AC3" t="n">
-        <v>254.6671190303049</v>
+        <v>301.5759272980473</v>
       </c>
       <c r="AD3" t="n">
-        <v>205764.8712634137</v>
+        <v>243666.0535247314</v>
       </c>
       <c r="AE3" t="n">
-        <v>281536.5745679205</v>
+        <v>333394.6442199811</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.23504239186926e-06</v>
+        <v>5.893544668365808e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.916232638888889</v>
       </c>
       <c r="AH3" t="n">
-        <v>254667.1190303049</v>
+        <v>301575.9272980473</v>
       </c>
     </row>
   </sheetData>
@@ -4419,28 +4419,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>198.7500887069416</v>
+        <v>233.9606885752104</v>
       </c>
       <c r="AB2" t="n">
-        <v>271.9386396037951</v>
+        <v>320.1153357255703</v>
       </c>
       <c r="AC2" t="n">
-        <v>245.9851975083663</v>
+        <v>289.5639773687123</v>
       </c>
       <c r="AD2" t="n">
-        <v>198750.0887069416</v>
+        <v>233960.6885752104</v>
       </c>
       <c r="AE2" t="n">
-        <v>271938.6396037951</v>
+        <v>320115.3357255703</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.127552895613117e-06</v>
+        <v>6.128995976396081e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.766927083333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>245985.1975083663</v>
+        <v>289563.9773687123</v>
       </c>
     </row>
   </sheetData>
@@ -4716,28 +4716,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>573.8977703661329</v>
+        <v>624.7763923247643</v>
       </c>
       <c r="AB2" t="n">
-        <v>785.2322479976765</v>
+        <v>854.8466231678605</v>
       </c>
       <c r="AC2" t="n">
-        <v>710.2907843291592</v>
+        <v>773.2612612374902</v>
       </c>
       <c r="AD2" t="n">
-        <v>573897.770366133</v>
+        <v>624776.3923247643</v>
       </c>
       <c r="AE2" t="n">
-        <v>785232.2479976765</v>
+        <v>854846.6231678604</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.860475269261102e-06</v>
+        <v>3.200912737390247e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.16536458333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>710290.7843291592</v>
+        <v>773261.2612374902</v>
       </c>
     </row>
     <row r="3">
@@ -4822,28 +4822,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>304.799646408728</v>
+        <v>345.5024723687924</v>
       </c>
       <c r="AB3" t="n">
-        <v>417.040323027794</v>
+        <v>472.7317251883024</v>
       </c>
       <c r="AC3" t="n">
-        <v>377.2385799177901</v>
+        <v>427.6148728194735</v>
       </c>
       <c r="AD3" t="n">
-        <v>304799.646408728</v>
+        <v>345502.4723687924</v>
       </c>
       <c r="AE3" t="n">
-        <v>417040.323027794</v>
+        <v>472731.7251883025</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.728065321253829e-06</v>
+        <v>4.693585117474889e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.615017361111111</v>
       </c>
       <c r="AH3" t="n">
-        <v>377238.5799177901</v>
+        <v>427614.8728194735</v>
       </c>
     </row>
     <row r="4">
@@ -4928,28 +4928,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>243.2144378693378</v>
+        <v>283.8319229748336</v>
       </c>
       <c r="AB4" t="n">
-        <v>332.7767237563953</v>
+        <v>388.3513587948671</v>
       </c>
       <c r="AC4" t="n">
-        <v>301.0169802962491</v>
+        <v>351.2876501660396</v>
       </c>
       <c r="AD4" t="n">
-        <v>243214.4378693378</v>
+        <v>283831.9229748336</v>
       </c>
       <c r="AE4" t="n">
-        <v>332776.7237563953</v>
+        <v>388351.3587948671</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.063270568614655e-06</v>
+        <v>5.270299446143955e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.781684027777778</v>
       </c>
       <c r="AH4" t="n">
-        <v>301016.9802962492</v>
+        <v>351287.6501660395</v>
       </c>
     </row>
     <row r="5">
@@ -5034,28 +5034,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>233.1912891468269</v>
+        <v>273.8087742523225</v>
       </c>
       <c r="AB5" t="n">
-        <v>319.0626094841493</v>
+        <v>374.6372445226141</v>
       </c>
       <c r="AC5" t="n">
-        <v>288.6117218422616</v>
+        <v>338.88239171205</v>
       </c>
       <c r="AD5" t="n">
-        <v>233191.2891468269</v>
+        <v>273808.7742523225</v>
       </c>
       <c r="AE5" t="n">
-        <v>319062.6094841493</v>
+        <v>374637.2445226141</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.131900540732792e-06</v>
+        <v>5.388376023429999e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>7</v>
+        <v>6.631944444444445</v>
       </c>
       <c r="AH5" t="n">
-        <v>288611.7218422616</v>
+        <v>338882.39171205</v>
       </c>
     </row>
   </sheetData>
@@ -5331,28 +5331,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>205.9069680719525</v>
+        <v>240.2916186576165</v>
       </c>
       <c r="AB2" t="n">
-        <v>281.7309976902319</v>
+        <v>328.7775935652372</v>
       </c>
       <c r="AC2" t="n">
-        <v>254.8429866826976</v>
+        <v>297.3995214777194</v>
       </c>
       <c r="AD2" t="n">
-        <v>205906.9680719525</v>
+        <v>240291.6186576165</v>
       </c>
       <c r="AE2" t="n">
-        <v>281730.9976902319</v>
+        <v>328777.5935652372</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.031602864965234e-06</v>
+        <v>6.077334141001431e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.200954861111111</v>
       </c>
       <c r="AH2" t="n">
-        <v>254842.9866826976</v>
+        <v>297399.5214777194</v>
       </c>
     </row>
   </sheetData>
@@ -5628,28 +5628,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>396.7097859212635</v>
+        <v>445.6104524422461</v>
       </c>
       <c r="AB2" t="n">
-        <v>542.7958306980277</v>
+        <v>609.703879977185</v>
       </c>
       <c r="AC2" t="n">
-        <v>490.9921584349402</v>
+        <v>551.5145973969319</v>
       </c>
       <c r="AD2" t="n">
-        <v>396709.7859212635</v>
+        <v>445610.4524422461</v>
       </c>
       <c r="AE2" t="n">
-        <v>542795.8306980276</v>
+        <v>609703.879977185</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.28840923660394e-06</v>
+        <v>4.052942802621586e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.437934027777779</v>
       </c>
       <c r="AH2" t="n">
-        <v>490992.1584349402</v>
+        <v>551514.5973969318</v>
       </c>
     </row>
     <row r="3">
@@ -5734,28 +5734,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>231.1653241431448</v>
+        <v>270.3369902658359</v>
       </c>
       <c r="AB3" t="n">
-        <v>316.290594786845</v>
+        <v>369.8869965080033</v>
       </c>
       <c r="AC3" t="n">
-        <v>286.1042643371201</v>
+        <v>334.5855007009388</v>
       </c>
       <c r="AD3" t="n">
-        <v>231165.3241431448</v>
+        <v>270336.9902658359</v>
       </c>
       <c r="AE3" t="n">
-        <v>316290.594786845</v>
+        <v>369886.9965080033</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.091581568689103e-06</v>
+        <v>5.47542068399047e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.985677083333332</v>
       </c>
       <c r="AH3" t="n">
-        <v>286104.2643371201</v>
+        <v>334585.5007009388</v>
       </c>
     </row>
     <row r="4">
@@ -5840,28 +5840,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>218.0595378034878</v>
+        <v>257.2312039261756</v>
       </c>
       <c r="AB4" t="n">
-        <v>298.3586797304484</v>
+        <v>351.9550814514266</v>
       </c>
       <c r="AC4" t="n">
-        <v>269.8837460860994</v>
+        <v>318.3649824498669</v>
       </c>
       <c r="AD4" t="n">
-        <v>218059.5378034879</v>
+        <v>257231.2039261755</v>
       </c>
       <c r="AE4" t="n">
-        <v>298358.6797304484</v>
+        <v>351955.0814514266</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.194378870020285e-06</v>
+        <v>5.657482343196772e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.759982638888889</v>
       </c>
       <c r="AH4" t="n">
-        <v>269883.7460860994</v>
+        <v>318364.9824498669</v>
       </c>
     </row>
   </sheetData>
@@ -6137,28 +6137,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>478.4717921429407</v>
+        <v>528.3974992660484</v>
       </c>
       <c r="AB2" t="n">
-        <v>654.6662146956654</v>
+        <v>722.97676974825</v>
       </c>
       <c r="AC2" t="n">
-        <v>592.1857899949135</v>
+        <v>653.9768815477457</v>
       </c>
       <c r="AD2" t="n">
-        <v>478471.7921429407</v>
+        <v>528397.4992660484</v>
       </c>
       <c r="AE2" t="n">
-        <v>654666.2146956654</v>
+        <v>722976.76974825</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.064241671017487e-06</v>
+        <v>3.599857226314181e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.24956597222222</v>
       </c>
       <c r="AH2" t="n">
-        <v>592185.7899949135</v>
+        <v>653976.8815477458</v>
       </c>
     </row>
     <row r="3">
@@ -6243,28 +6243,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>272.3945031288275</v>
+        <v>312.232677703538</v>
       </c>
       <c r="AB3" t="n">
-        <v>372.7021763782099</v>
+        <v>427.2105243675501</v>
       </c>
       <c r="AC3" t="n">
-        <v>337.1320037554625</v>
+        <v>386.4381515156471</v>
       </c>
       <c r="AD3" t="n">
-        <v>272394.5031288275</v>
+        <v>312232.677703538</v>
       </c>
       <c r="AE3" t="n">
-        <v>372702.1763782098</v>
+        <v>427210.5243675501</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.903062279196762e-06</v>
+        <v>5.062687121830731e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.289496527777778</v>
       </c>
       <c r="AH3" t="n">
-        <v>337132.0037554625</v>
+        <v>386438.1515156471</v>
       </c>
     </row>
     <row r="4">
@@ -6349,28 +6349,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>224.4652149078563</v>
+        <v>264.3886408285899</v>
       </c>
       <c r="AB4" t="n">
-        <v>307.1232097431698</v>
+        <v>361.7482023853072</v>
       </c>
       <c r="AC4" t="n">
-        <v>277.8118016555047</v>
+        <v>327.2234616664435</v>
       </c>
       <c r="AD4" t="n">
-        <v>224465.2149078563</v>
+        <v>264388.6408285899</v>
       </c>
       <c r="AE4" t="n">
-        <v>307123.2097431698</v>
+        <v>361748.2023853072</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.170318734737782e-06</v>
+        <v>5.528759043673213e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.675347222222222</v>
       </c>
       <c r="AH4" t="n">
-        <v>277811.8016555047</v>
+        <v>327223.4616664435</v>
       </c>
     </row>
     <row r="5">
@@ -6455,28 +6455,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>225.3876730363717</v>
+        <v>265.3110989571054</v>
       </c>
       <c r="AB5" t="n">
-        <v>308.3853576505846</v>
+        <v>363.0103502927225</v>
       </c>
       <c r="AC5" t="n">
-        <v>278.9534919380719</v>
+        <v>328.3651519490108</v>
       </c>
       <c r="AD5" t="n">
-        <v>225387.6730363717</v>
+        <v>265311.0989571054</v>
       </c>
       <c r="AE5" t="n">
-        <v>308385.3576505846</v>
+        <v>363010.3502927225</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.169538708599756e-06</v>
+        <v>5.527398746199758e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>7</v>
+        <v>6.675347222222222</v>
       </c>
       <c r="AH5" t="n">
-        <v>278953.4919380719</v>
+        <v>328365.1519490108</v>
       </c>
     </row>
   </sheetData>
@@ -6752,28 +6752,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>684.1033452546538</v>
+        <v>746.0426458517293</v>
       </c>
       <c r="AB2" t="n">
-        <v>936.0203774869772</v>
+        <v>1020.768461132983</v>
       </c>
       <c r="AC2" t="n">
-        <v>846.6879063724701</v>
+        <v>923.3477518599836</v>
       </c>
       <c r="AD2" t="n">
-        <v>684103.3452546538</v>
+        <v>746042.6458517293</v>
       </c>
       <c r="AE2" t="n">
-        <v>936020.3774869771</v>
+        <v>1020768.461132983</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.678494743624308e-06</v>
+        <v>2.853329819607942e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.16796875</v>
       </c>
       <c r="AH2" t="n">
-        <v>846687.9063724701</v>
+        <v>923347.7518599837</v>
       </c>
     </row>
     <row r="3">
@@ -6858,28 +6858,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>338.1421770660293</v>
+        <v>389.6586219761328</v>
       </c>
       <c r="AB3" t="n">
-        <v>462.6610444417504</v>
+        <v>533.1481171129012</v>
       </c>
       <c r="AC3" t="n">
-        <v>418.5053237090831</v>
+        <v>482.2652090937271</v>
       </c>
       <c r="AD3" t="n">
-        <v>338142.1770660293</v>
+        <v>389658.6219761329</v>
       </c>
       <c r="AE3" t="n">
-        <v>462661.0444417504</v>
+        <v>533148.1171129012</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.572939040983737e-06</v>
+        <v>4.373825844589937e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.938368055555555</v>
       </c>
       <c r="AH3" t="n">
-        <v>418505.3237090831</v>
+        <v>482265.2090937271</v>
       </c>
     </row>
     <row r="4">
@@ -6964,28 +6964,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>269.4790547696305</v>
+        <v>310.7434152104564</v>
       </c>
       <c r="AB4" t="n">
-        <v>368.7131313126523</v>
+        <v>425.1728497228916</v>
       </c>
       <c r="AC4" t="n">
-        <v>333.523667552302</v>
+        <v>384.5949496791804</v>
       </c>
       <c r="AD4" t="n">
-        <v>269479.0547696305</v>
+        <v>310743.4152104564</v>
       </c>
       <c r="AE4" t="n">
-        <v>368713.1313126523</v>
+        <v>425172.8497228916</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.919084466666395e-06</v>
+        <v>4.962250126985115e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.996527777777779</v>
       </c>
       <c r="AH4" t="n">
-        <v>333523.667552302</v>
+        <v>384594.9496791805</v>
       </c>
     </row>
     <row r="5">
@@ -7070,28 +7070,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>242.2793159529522</v>
+        <v>283.5436763937811</v>
       </c>
       <c r="AB5" t="n">
-        <v>331.4972486957298</v>
+        <v>387.9569671061294</v>
       </c>
       <c r="AC5" t="n">
-        <v>299.8596165396186</v>
+        <v>350.9308986665427</v>
       </c>
       <c r="AD5" t="n">
-        <v>242279.3159529522</v>
+        <v>283543.6763937811</v>
       </c>
       <c r="AE5" t="n">
-        <v>331497.2486957298</v>
+        <v>387956.9671061293</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.087075109636363e-06</v>
+        <v>5.247823086222578e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>7</v>
+        <v>6.616753472222222</v>
       </c>
       <c r="AH5" t="n">
-        <v>299859.6165396186</v>
+        <v>350930.8986665427</v>
       </c>
     </row>
     <row r="6">
@@ -7176,28 +7176,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>241.3864316537304</v>
+        <v>272.4840484798531</v>
       </c>
       <c r="AB6" t="n">
-        <v>330.27556500626</v>
+        <v>372.824696277945</v>
       </c>
       <c r="AC6" t="n">
-        <v>298.7545286268276</v>
+        <v>337.2428305279248</v>
       </c>
       <c r="AD6" t="n">
-        <v>241386.4316537304</v>
+        <v>272484.0484798531</v>
       </c>
       <c r="AE6" t="n">
-        <v>330275.56500626</v>
+        <v>372824.696277945</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.096109900518782e-06</v>
+        <v>5.263181631929468e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>7</v>
+        <v>6.597222222222222</v>
       </c>
       <c r="AH6" t="n">
-        <v>298754.5286268276</v>
+        <v>337242.8305279248</v>
       </c>
     </row>
   </sheetData>
@@ -7473,28 +7473,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>323.8318090222803</v>
+        <v>371.7871999734787</v>
       </c>
       <c r="AB2" t="n">
-        <v>443.080967555412</v>
+        <v>508.6956490973757</v>
       </c>
       <c r="AC2" t="n">
-        <v>400.7939418799664</v>
+        <v>460.146450306349</v>
       </c>
       <c r="AD2" t="n">
-        <v>323831.8090222803</v>
+        <v>371787.1999734787</v>
       </c>
       <c r="AE2" t="n">
-        <v>443080.967555412</v>
+        <v>508695.6490973757</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.544769762044583e-06</v>
+        <v>4.588822075136465e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.682725694444445</v>
       </c>
       <c r="AH2" t="n">
-        <v>400793.9418799664</v>
+        <v>460146.450306349</v>
       </c>
     </row>
     <row r="3">
@@ -7579,28 +7579,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>209.5576846439894</v>
+        <v>247.9049292340333</v>
       </c>
       <c r="AB3" t="n">
-        <v>286.7260691623386</v>
+        <v>339.1944609714431</v>
       </c>
       <c r="AC3" t="n">
-        <v>259.3613355441349</v>
+        <v>306.8222176788455</v>
       </c>
       <c r="AD3" t="n">
-        <v>209557.6846439894</v>
+        <v>247904.9292340333</v>
       </c>
       <c r="AE3" t="n">
-        <v>286726.0691623386</v>
+        <v>339194.4609714431</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.223877320372075e-06</v>
+        <v>5.813413706774466e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.853298611111111</v>
       </c>
       <c r="AH3" t="n">
-        <v>259361.3355441349</v>
+        <v>306822.2176788455</v>
       </c>
     </row>
     <row r="4">
@@ -7685,28 +7685,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>210.6658045280695</v>
+        <v>249.0130491181133</v>
       </c>
       <c r="AB4" t="n">
-        <v>288.2422476745351</v>
+        <v>340.7106394836396</v>
       </c>
       <c r="AC4" t="n">
-        <v>260.7328121070978</v>
+        <v>308.1936942418085</v>
       </c>
       <c r="AD4" t="n">
-        <v>210665.8045280695</v>
+        <v>249013.0491181133</v>
       </c>
       <c r="AE4" t="n">
-        <v>288242.2476745351</v>
+        <v>340710.6394836396</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.22092467881413e-06</v>
+        <v>5.808089395332564e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.859809027777778</v>
       </c>
       <c r="AH4" t="n">
-        <v>260732.8121070978</v>
+        <v>308193.6942418085</v>
       </c>
     </row>
   </sheetData>
@@ -7982,28 +7982,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>230.5035749457319</v>
+        <v>267.5104569436397</v>
       </c>
       <c r="AB2" t="n">
-        <v>315.3851603406309</v>
+        <v>366.0196089187251</v>
       </c>
       <c r="AC2" t="n">
-        <v>285.2852432836671</v>
+        <v>331.0872111552687</v>
       </c>
       <c r="AD2" t="n">
-        <v>230503.5749457318</v>
+        <v>267510.4569436397</v>
       </c>
       <c r="AE2" t="n">
-        <v>315385.1603406309</v>
+        <v>366019.608918725</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.019781324292664e-06</v>
+        <v>5.633946699959786e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.621527777777778</v>
       </c>
       <c r="AH2" t="n">
-        <v>285285.2432836671</v>
+        <v>331087.2111552687</v>
       </c>
     </row>
     <row r="3">
@@ -8088,28 +8088,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>208.7185322151661</v>
+        <v>236.4737832221455</v>
       </c>
       <c r="AB3" t="n">
-        <v>285.5779037884307</v>
+        <v>323.5538626914162</v>
       </c>
       <c r="AC3" t="n">
-        <v>258.3227494620522</v>
+        <v>292.6743361469419</v>
       </c>
       <c r="AD3" t="n">
-        <v>208718.5322151661</v>
+        <v>236473.7832221455</v>
       </c>
       <c r="AE3" t="n">
-        <v>285577.9037884307</v>
+        <v>323553.8626914162</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.229881658062332e-06</v>
+        <v>6.025926765728069e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.126736111111111</v>
       </c>
       <c r="AH3" t="n">
-        <v>258322.7494620522</v>
+        <v>292674.3361469419</v>
       </c>
     </row>
   </sheetData>
@@ -13990,28 +13990,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>201.4829125592902</v>
+        <v>237.1796109446684</v>
       </c>
       <c r="AB2" t="n">
-        <v>275.6778097622561</v>
+        <v>324.5196073202928</v>
       </c>
       <c r="AC2" t="n">
-        <v>249.3675065148632</v>
+        <v>293.54791146387</v>
       </c>
       <c r="AD2" t="n">
-        <v>201482.9125592902</v>
+        <v>237179.6109446684</v>
       </c>
       <c r="AE2" t="n">
-        <v>275677.809762256</v>
+        <v>324519.6073202929</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.181533165512986e-06</v>
+        <v>6.118206260009447e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.482638888888889</v>
       </c>
       <c r="AH2" t="n">
-        <v>249367.5065148632</v>
+        <v>293547.91146387</v>
       </c>
     </row>
     <row r="3">
@@ -14096,28 +14096,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>202.8280047090177</v>
+        <v>238.5247030943958</v>
       </c>
       <c r="AB3" t="n">
-        <v>277.5182241827897</v>
+        <v>326.3600217408265</v>
       </c>
       <c r="AC3" t="n">
-        <v>251.0322743661396</v>
+        <v>295.2126793151464</v>
       </c>
       <c r="AD3" t="n">
-        <v>202828.0047090177</v>
+        <v>238524.7030943958</v>
       </c>
       <c r="AE3" t="n">
-        <v>277518.2241827897</v>
+        <v>326360.0217408265</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.180765182749491e-06</v>
+        <v>6.116729400675673e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.484809027777778</v>
       </c>
       <c r="AH3" t="n">
-        <v>251032.2743661396</v>
+        <v>295212.6793151463</v>
       </c>
     </row>
   </sheetData>
@@ -14393,28 +14393,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>206.9904089451716</v>
+        <v>248.9154018411126</v>
       </c>
       <c r="AB2" t="n">
-        <v>283.2134092910075</v>
+        <v>340.5770341713534</v>
       </c>
       <c r="AC2" t="n">
-        <v>256.1839190008733</v>
+        <v>308.0728400330107</v>
       </c>
       <c r="AD2" t="n">
-        <v>206990.4089451716</v>
+        <v>248915.4018411126</v>
       </c>
       <c r="AE2" t="n">
-        <v>283213.4092910074</v>
+        <v>340577.0341713534</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.842587697352579e-06</v>
+        <v>5.86311945547351e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.988715277777779</v>
       </c>
       <c r="AH2" t="n">
-        <v>256183.9190008733</v>
+        <v>308072.8400330106</v>
       </c>
     </row>
   </sheetData>
@@ -14690,28 +14690,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>432.7538216926512</v>
+        <v>482.3049515435883</v>
       </c>
       <c r="AB2" t="n">
-        <v>592.1128705910713</v>
+        <v>659.9109124946891</v>
       </c>
       <c r="AC2" t="n">
-        <v>535.602449257492</v>
+        <v>596.9299411969781</v>
       </c>
       <c r="AD2" t="n">
-        <v>432753.8216926513</v>
+        <v>482304.9515435883</v>
       </c>
       <c r="AE2" t="n">
-        <v>592112.8705910713</v>
+        <v>659910.9124946891</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.168258446459781e-06</v>
+        <v>3.809544557456921e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.856770833333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>535602.449257492</v>
+        <v>596929.9411969781</v>
       </c>
     </row>
     <row r="3">
@@ -14796,28 +14796,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>257.0324290362573</v>
+        <v>286.7631964553738</v>
       </c>
       <c r="AB3" t="n">
-        <v>351.6831088777116</v>
+        <v>392.3620564896013</v>
       </c>
       <c r="AC3" t="n">
-        <v>318.1189665568711</v>
+        <v>354.9155725018379</v>
       </c>
       <c r="AD3" t="n">
-        <v>257032.4290362573</v>
+        <v>286763.1964553738</v>
       </c>
       <c r="AE3" t="n">
-        <v>351683.1088777116</v>
+        <v>392362.0564896013</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.991818505854057e-06</v>
+        <v>5.256507094200141e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.144097222222222</v>
       </c>
       <c r="AH3" t="n">
-        <v>318118.9665568711</v>
+        <v>354915.5725018379</v>
       </c>
     </row>
     <row r="4">
@@ -14902,28 +14902,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>221.6544684793037</v>
+        <v>261.2100315054844</v>
       </c>
       <c r="AB4" t="n">
-        <v>303.2774224782454</v>
+        <v>357.3990888790877</v>
       </c>
       <c r="AC4" t="n">
-        <v>274.3330509295471</v>
+        <v>323.2894214492385</v>
       </c>
       <c r="AD4" t="n">
-        <v>221654.4684793037</v>
+        <v>261210.0315054844</v>
       </c>
       <c r="AE4" t="n">
-        <v>303277.4224782454</v>
+        <v>357399.0888790877</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.181189065965882e-06</v>
+        <v>5.589223698069233e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.71875</v>
       </c>
       <c r="AH4" t="n">
-        <v>274333.0509295471</v>
+        <v>323289.4214492385</v>
       </c>
     </row>
     <row r="5">
@@ -15008,28 +15008,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>222.4401702874433</v>
+        <v>261.995733313624</v>
       </c>
       <c r="AB5" t="n">
-        <v>304.3524543548589</v>
+        <v>358.4741207557018</v>
       </c>
       <c r="AC5" t="n">
-        <v>275.3054832726736</v>
+        <v>324.2618537923652</v>
       </c>
       <c r="AD5" t="n">
-        <v>222440.1702874433</v>
+        <v>261995.733313624</v>
       </c>
       <c r="AE5" t="n">
-        <v>304352.4543548589</v>
+        <v>358474.1207557018</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.181582972487175e-06</v>
+        <v>5.589915776288408e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>7</v>
+        <v>6.716579861111111</v>
       </c>
       <c r="AH5" t="n">
-        <v>275305.4832726736</v>
+        <v>324261.8537923652</v>
       </c>
     </row>
   </sheetData>
@@ -15305,28 +15305,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>623.6840584906238</v>
+        <v>685.2314991251172</v>
       </c>
       <c r="AB2" t="n">
-        <v>853.3520438256218</v>
+        <v>937.5639673831814</v>
       </c>
       <c r="AC2" t="n">
-        <v>771.9093224500197</v>
+        <v>848.0841782154226</v>
       </c>
       <c r="AD2" t="n">
-        <v>623684.0584906238</v>
+        <v>685231.4991251172</v>
       </c>
       <c r="AE2" t="n">
-        <v>853352.0438256217</v>
+        <v>937563.9673831814</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.763722459883934e-06</v>
+        <v>3.015768852945561e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.67534722222222</v>
       </c>
       <c r="AH2" t="n">
-        <v>771909.3224500197</v>
+        <v>848084.1782154227</v>
       </c>
     </row>
     <row r="3">
@@ -15411,28 +15411,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>321.6436966101351</v>
+        <v>362.6753236997974</v>
       </c>
       <c r="AB3" t="n">
-        <v>440.0870956204082</v>
+        <v>496.2283779921146</v>
       </c>
       <c r="AC3" t="n">
-        <v>398.0858008805137</v>
+        <v>448.8690380574491</v>
       </c>
       <c r="AD3" t="n">
-        <v>321643.6966101351</v>
+        <v>362675.3236997974</v>
       </c>
       <c r="AE3" t="n">
-        <v>440087.0956204082</v>
+        <v>496228.3779921146</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.646532641972615e-06</v>
+        <v>4.525275881835724e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.782118055555555</v>
       </c>
       <c r="AH3" t="n">
-        <v>398085.8008805137</v>
+        <v>448869.0380574492</v>
       </c>
     </row>
     <row r="4">
@@ -15517,28 +15517,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>256.6316121913837</v>
+        <v>297.5778984264775</v>
       </c>
       <c r="AB4" t="n">
-        <v>351.1346935877644</v>
+        <v>407.1592088374436</v>
       </c>
       <c r="AC4" t="n">
-        <v>317.6228912524908</v>
+        <v>368.3005053975359</v>
       </c>
       <c r="AD4" t="n">
-        <v>256631.6121913837</v>
+        <v>297577.8984264775</v>
       </c>
       <c r="AE4" t="n">
-        <v>351134.6935877645</v>
+        <v>407159.2088374436</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.989958423868663e-06</v>
+        <v>5.112495696686148e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.888020833333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>317622.8912524908</v>
+        <v>368300.5053975359</v>
       </c>
     </row>
     <row r="5">
@@ -15623,28 +15623,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>236.7857523686494</v>
+        <v>277.7320386037429</v>
       </c>
       <c r="AB5" t="n">
-        <v>323.9807126407699</v>
+        <v>380.005227890435</v>
       </c>
       <c r="AC5" t="n">
-        <v>293.0604481362171</v>
+        <v>343.7380622812582</v>
       </c>
       <c r="AD5" t="n">
-        <v>236785.7523686494</v>
+        <v>277732.0386037429</v>
       </c>
       <c r="AE5" t="n">
-        <v>323980.7126407699</v>
+        <v>380005.227890435</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.113606888585588e-06</v>
+        <v>5.323920791670979e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>7</v>
+        <v>6.614583333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>293060.4481362171</v>
+        <v>343738.0622812582</v>
       </c>
     </row>
     <row r="6">
@@ -15729,28 +15729,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>237.822831119306</v>
+        <v>278.7691173543997</v>
       </c>
       <c r="AB6" t="n">
-        <v>325.3996895401031</v>
+        <v>381.424204789769</v>
       </c>
       <c r="AC6" t="n">
-        <v>294.343999871825</v>
+        <v>345.0216140168663</v>
       </c>
       <c r="AD6" t="n">
-        <v>237822.831119306</v>
+        <v>278769.1173543996</v>
       </c>
       <c r="AE6" t="n">
-        <v>325399.6895401031</v>
+        <v>381424.204789769</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.111044717789459e-06</v>
+        <v>5.319539765144048e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>7</v>
+        <v>6.618923611111111</v>
       </c>
       <c r="AH6" t="n">
-        <v>294343.999871825</v>
+        <v>345021.6140168663</v>
       </c>
     </row>
   </sheetData>
@@ -16026,28 +16026,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>230.2889731949197</v>
+        <v>279.0312031408345</v>
       </c>
       <c r="AB2" t="n">
-        <v>315.0915327576088</v>
+        <v>381.782802125178</v>
       </c>
       <c r="AC2" t="n">
-        <v>285.0196391050598</v>
+        <v>345.3459873258784</v>
       </c>
       <c r="AD2" t="n">
-        <v>230288.9731949197</v>
+        <v>279031.2031408345</v>
       </c>
       <c r="AE2" t="n">
-        <v>315091.5327576088</v>
+        <v>381782.802125178</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.477714967930088e-06</v>
+        <v>5.310884388154522e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.67925347222222</v>
       </c>
       <c r="AH2" t="n">
-        <v>285019.6391050597</v>
+        <v>345345.9873258783</v>
       </c>
     </row>
   </sheetData>
@@ -16323,28 +16323,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>257.8744813449683</v>
+        <v>304.5950195112252</v>
       </c>
       <c r="AB2" t="n">
-        <v>352.8352419952153</v>
+        <v>416.760343479129</v>
       </c>
       <c r="AC2" t="n">
-        <v>319.1611417066697</v>
+        <v>376.985321224296</v>
       </c>
       <c r="AD2" t="n">
-        <v>257874.4813449683</v>
+        <v>304595.0195112252</v>
       </c>
       <c r="AE2" t="n">
-        <v>352835.2419952153</v>
+        <v>416760.343479129</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.842303907708066e-06</v>
+        <v>5.236753194214653e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.979600694444445</v>
       </c>
       <c r="AH2" t="n">
-        <v>319161.1417066697</v>
+        <v>376985.321224296</v>
       </c>
     </row>
     <row r="3">
@@ -16429,28 +16429,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>212.2844213760584</v>
+        <v>240.4192428098473</v>
       </c>
       <c r="AB3" t="n">
-        <v>290.4569106542881</v>
+        <v>328.9522145606993</v>
       </c>
       <c r="AC3" t="n">
-        <v>262.7361107603628</v>
+        <v>297.5574768904568</v>
       </c>
       <c r="AD3" t="n">
-        <v>212284.4213760584</v>
+        <v>240419.2428098473</v>
       </c>
       <c r="AE3" t="n">
-        <v>290456.9106542881</v>
+        <v>328952.2145606993</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.232028546325633e-06</v>
+        <v>5.954794548135321e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.018229166666668</v>
       </c>
       <c r="AH3" t="n">
-        <v>262736.1107603628</v>
+        <v>297557.4768904568</v>
       </c>
     </row>
   </sheetData>
@@ -16726,28 +16726,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>364.9711287877759</v>
+        <v>403.8262752599364</v>
       </c>
       <c r="AB2" t="n">
-        <v>499.3695997972589</v>
+        <v>552.5329253685516</v>
       </c>
       <c r="AC2" t="n">
-        <v>451.7104660622429</v>
+        <v>499.7999584562073</v>
       </c>
       <c r="AD2" t="n">
-        <v>364971.1287877759</v>
+        <v>403826.2752599365</v>
       </c>
       <c r="AE2" t="n">
-        <v>499369.5997972589</v>
+        <v>552532.9253685515</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.408701335703863e-06</v>
+        <v>4.302969153353054e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.066840277777779</v>
       </c>
       <c r="AH2" t="n">
-        <v>451710.4660622429</v>
+        <v>499799.9584562073</v>
       </c>
     </row>
     <row r="3">
@@ -16832,28 +16832,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>217.7121934555396</v>
+        <v>256.481909564577</v>
       </c>
       <c r="AB3" t="n">
-        <v>297.8834278698347</v>
+        <v>350.9298638493539</v>
       </c>
       <c r="AC3" t="n">
-        <v>269.4538515960425</v>
+        <v>317.4376101768336</v>
       </c>
       <c r="AD3" t="n">
-        <v>217712.1934555396</v>
+        <v>256481.909564577</v>
       </c>
       <c r="AE3" t="n">
-        <v>297883.4278698348</v>
+        <v>350929.8638493539</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.176752856107722e-06</v>
+        <v>5.675037143475197e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.875</v>
       </c>
       <c r="AH3" t="n">
-        <v>269453.8515960425</v>
+        <v>317437.6101768336</v>
       </c>
     </row>
     <row r="4">
@@ -16938,28 +16938,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>214.2227237447843</v>
+        <v>252.9924398538217</v>
       </c>
       <c r="AB4" t="n">
-        <v>293.1089814670429</v>
+        <v>346.155417446562</v>
       </c>
       <c r="AC4" t="n">
-        <v>265.1350716569539</v>
+        <v>313.1188302377451</v>
       </c>
       <c r="AD4" t="n">
-        <v>214222.7237447843</v>
+        <v>252992.4398538216</v>
       </c>
       <c r="AE4" t="n">
-        <v>293108.9814670429</v>
+        <v>346155.417446562</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.21146761760901e-06</v>
+        <v>5.737052531473643e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.799045138888889</v>
       </c>
       <c r="AH4" t="n">
-        <v>265135.071656954</v>
+        <v>313118.8302377451</v>
       </c>
     </row>
   </sheetData>
